--- a/Festivos.xlsx
+++ b/Festivos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAE\TAE-trabajo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77969BE0-198E-427F-9AED-262146B770C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A5ACBA-82E1-4CC4-B7E6-111D1AEB9FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22815" yWindow="5400" windowWidth="11820" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -349,16 +349,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B125" sqref="B108:B125"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,6 +1380,294 @@
         <v>1</v>
       </c>
     </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44555</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44746</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
